--- a/MVF/RochaData.xlsx
+++ b/MVF/RochaData.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\CERNN\Batch-Settling\MVF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84A4CF4-57BA-480D-996D-22D22DE3BC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="5415" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Numerico"/>
-    <sheet r:id="rId2" sheetId="2" name="Experimental"/>
+    <sheet name="Numerico" sheetId="1" r:id="rId1"/>
+    <sheet name="Experimental" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>t05</t>
   </si>
@@ -34,12 +40,35 @@
   <si>
     <t>Z30</t>
   </si>
+  <si>
+    <t>t40</t>
+  </si>
+  <si>
+    <t>Z40</t>
+  </si>
+  <si>
+    <t>t60</t>
+  </si>
+  <si>
+    <t>Z60</t>
+  </si>
+  <si>
+    <t>t80</t>
+  </si>
+  <si>
+    <t>Z80</t>
+  </si>
+  <si>
+    <t>t120</t>
+  </si>
+  <si>
+    <t>Z120</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,35 +117,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -127,10 +167,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -168,71 +208,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -260,7 +300,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -283,11 +323,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -296,13 +336,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +352,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +361,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +370,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -338,10 +378,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -406,25 +446,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -443,8 +485,32 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -463,8 +529,32 @@
       <c r="F2" s="3">
         <v>0.1391</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.44169758330153</v>
       </c>
@@ -472,41 +562,89 @@
         <v>0.14044502617801</v>
       </c>
       <c r="C3" s="3">
-        <v>0.974480773898264</v>
+        <v>0.97448077389826404</v>
       </c>
       <c r="D3" s="3">
-        <v>0.140052356020942</v>
+        <v>0.14005235602094199</v>
       </c>
       <c r="E3" s="3">
-        <v>0.594853044578826</v>
+        <v>0.59485304457882604</v>
       </c>
       <c r="F3" s="3">
-        <v>0.140153846153846</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>0.14015384615384599</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.26516649384338</v>
+      </c>
+      <c r="H3">
+        <v>0.139956355173529</v>
+      </c>
+      <c r="I3">
+        <v>0.803044801797824</v>
+      </c>
+      <c r="J3">
+        <v>0.13969568653078601</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1.7272881858889499</v>
+      </c>
+      <c r="L3">
+        <v>0.14021702381627099</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1.72628792248625</v>
+      </c>
+      <c r="N3">
+        <v>0.14008658946856001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>4.71342879927878</v>
+        <v>4.7134287992787796</v>
       </c>
       <c r="B4" s="3">
-        <v>0.143324607329842</v>
+        <v>0.14332460732984201</v>
       </c>
       <c r="C4" s="3">
-        <v>7.46576054921811</v>
+        <v>7.4657605492181096</v>
       </c>
       <c r="D4" s="3">
-        <v>0.140183246073298</v>
+        <v>0.14018324607329799</v>
       </c>
       <c r="E4" s="3">
-        <v>25.2707073548024</v>
+        <v>25.270707354802401</v>
       </c>
       <c r="F4" s="3">
         <v>0.140615384615384</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="G4" s="8">
+        <v>9.5473474681666204</v>
+      </c>
+      <c r="H4">
+        <v>0.139952754225279</v>
+      </c>
+      <c r="I4" s="8">
+        <v>28.872436408254099</v>
+      </c>
+      <c r="J4">
+        <v>0.139944352012696</v>
+      </c>
+      <c r="K4" s="8">
+        <v>46.817161852621197</v>
+      </c>
+      <c r="L4">
+        <v>0.13993654995815499</v>
+      </c>
+      <c r="M4" s="8">
+        <v>45.438798883705999</v>
+      </c>
+      <c r="N4">
+        <v>0.14019801881162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>8.90503103221108</v>
+        <v>8.9050310322110793</v>
       </c>
       <c r="B5" s="3">
         <v>0.145418848167539</v>
@@ -518,53 +656,125 @@
         <v>0.140706806282722</v>
       </c>
       <c r="E5" s="3">
-        <v>41.7128392631134</v>
+        <v>41.712839263113402</v>
       </c>
       <c r="F5" s="3">
-        <v>0.141846153846153</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>0.14184615384615301</v>
+      </c>
+      <c r="G5" s="8">
+        <v>28.873436671656801</v>
+      </c>
+      <c r="H5">
+        <v>0.14007478636040799</v>
+      </c>
+      <c r="I5" s="8">
+        <v>57.400948916548003</v>
+      </c>
+      <c r="J5">
+        <v>0.14006238309421401</v>
+      </c>
+      <c r="K5" s="8">
+        <v>84.087976500478405</v>
+      </c>
+      <c r="L5">
+        <v>0.14005078003874299</v>
+      </c>
+      <c r="M5" s="8">
+        <v>84.088976763881107</v>
+      </c>
+      <c r="N5">
+        <v>0.14018121438645501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>12.6427655074373</v>
       </c>
       <c r="B6" s="3">
-        <v>0.148560209424083</v>
+        <v>0.14856020942408299</v>
       </c>
       <c r="C6" s="3">
-        <v>27.8825283450643</v>
+        <v>27.882528345064301</v>
       </c>
       <c r="D6" s="3">
-        <v>0.142277486910994</v>
+        <v>0.14227748691099401</v>
       </c>
       <c r="E6" s="3">
-        <v>55.9555618056532</v>
+        <v>55.955561805653197</v>
       </c>
       <c r="F6" s="3">
-        <v>0.143692307692307</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>0.14369230769230701</v>
+      </c>
+      <c r="G6" s="8">
+        <v>37.616739074622998</v>
+      </c>
+      <c r="H6">
+        <v>0.140201419707189</v>
+      </c>
+      <c r="I6" s="8">
+        <v>71.664705038993603</v>
+      </c>
+      <c r="J6">
+        <v>0.14005618146111801</v>
+      </c>
+      <c r="K6" s="8">
+        <v>111.695246414889</v>
+      </c>
+      <c r="L6">
+        <v>0.140038776877911</v>
+      </c>
+      <c r="M6" s="8">
+        <v>113.076610174012</v>
+      </c>
+      <c r="N6">
+        <v>0.14016861106758099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>16.3768593322006</v>
+        <v>16.376859332200599</v>
       </c>
       <c r="B7" s="3">
         <v>0.15130890052356</v>
       </c>
       <c r="C7" s="3">
-        <v>33.9199403626781</v>
+        <v>33.919940362678098</v>
       </c>
       <c r="D7" s="3">
-        <v>0.143455497382198</v>
+        <v>0.14345549738219801</v>
       </c>
       <c r="E7" s="3">
-        <v>67.4574602728167</v>
+        <v>67.457460272816704</v>
       </c>
       <c r="F7" s="3">
         <v>0.145384615384615</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="G7" s="8">
+        <v>55.567466099406197</v>
+      </c>
+      <c r="H7">
+        <v>0.14097622373891699</v>
+      </c>
+      <c r="I7" s="8">
+        <v>88.232067777848101</v>
+      </c>
+      <c r="J7">
+        <v>0.14044028260775299</v>
+      </c>
+      <c r="K7" s="8">
+        <v>124.12051840317901</v>
+      </c>
+      <c r="L7">
+        <v>0.14029424415095901</v>
+      </c>
+      <c r="M7" s="8">
+        <v>148.50393937070001</v>
+      </c>
+      <c r="N7">
+        <v>0.13989233831575601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>20.1085260566554</v>
       </c>
@@ -572,124 +782,268 @@
         <v>0.153795811518324</v>
       </c>
       <c r="C8" s="3">
-        <v>42.2800873756111</v>
+        <v>42.280087375611103</v>
       </c>
       <c r="D8" s="3">
-        <v>0.145157068062827</v>
+        <v>0.14515706806282699</v>
       </c>
       <c r="E8" s="3">
-        <v>78.4081001265644</v>
+        <v>78.408100126564406</v>
       </c>
       <c r="F8" s="3">
         <v>0.147384615384615</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="G8" s="8">
+        <v>78.127406883812696</v>
+      </c>
+      <c r="H8">
+        <v>0.14279250202553301</v>
+      </c>
+      <c r="I8" s="8">
+        <v>106.18279480263099</v>
+      </c>
+      <c r="J8">
+        <v>0.14121508663948101</v>
+      </c>
+      <c r="K8" s="8">
+        <v>143.44860813347501</v>
+      </c>
+      <c r="L8">
+        <v>0.14067714498151099</v>
+      </c>
+      <c r="M8" s="8">
+        <v>171.971119061352</v>
+      </c>
+      <c r="N8">
+        <v>0.14001256997676001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>25.7017787177975</v>
+        <v>25.701778717797499</v>
       </c>
       <c r="B9" s="3">
-        <v>0.157068062827225</v>
+        <v>0.15706806282722499</v>
       </c>
       <c r="C9" s="3">
-        <v>50.1790853299122</v>
+        <v>50.179085329912198</v>
       </c>
       <c r="D9" s="3">
-        <v>0.147120418848167</v>
+        <v>0.14712041884816701</v>
       </c>
       <c r="E9" s="3">
-        <v>91.0040781887216</v>
+        <v>91.004078188721607</v>
       </c>
       <c r="F9" s="3">
         <v>0.149384615384615</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="G9" s="8">
+        <v>92.404166430493305</v>
+      </c>
+      <c r="H9">
+        <v>0.14448194691268701</v>
+      </c>
+      <c r="I9" s="8">
+        <v>129.19885569866699</v>
+      </c>
+      <c r="J9">
+        <v>0.14250942748257001</v>
+      </c>
+      <c r="K9" s="8">
+        <v>156.79512271564801</v>
+      </c>
+      <c r="L9">
+        <v>0.14106264649691</v>
+      </c>
+      <c r="M9" s="8">
+        <v>194.51705615812099</v>
+      </c>
+      <c r="N9">
+        <v>0.14000276739541401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>29.8994487015013</v>
+        <v>29.899448701501299</v>
       </c>
       <c r="B10" s="3">
         <v>0.159816753926701</v>
       </c>
       <c r="C10" s="3">
-        <v>57.1509309663326</v>
+        <v>57.150930966332602</v>
       </c>
       <c r="D10" s="3">
         <v>0.149083769633507</v>
       </c>
       <c r="E10" s="3">
-        <v>106.33384896639</v>
+        <v>106.33384896638999</v>
       </c>
       <c r="F10" s="3">
-        <v>0.152307692307692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>0.15230769230769201</v>
+      </c>
+      <c r="G10" s="8">
+        <v>110.36789687951099</v>
+      </c>
+      <c r="H10">
+        <v>0.14695239746466501</v>
+      </c>
+      <c r="I10" s="8">
+        <v>154.52252426472299</v>
+      </c>
+      <c r="J10">
+        <v>0.144715808496237</v>
+      </c>
+      <c r="K10" s="8">
+        <v>177.508577258678</v>
+      </c>
+      <c r="L10">
+        <v>0.14209711890797899</v>
+      </c>
+      <c r="M10" s="8">
+        <v>221.20608426885701</v>
+      </c>
+      <c r="N10">
+        <v>0.14025203303536499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>35.0230574529315</v>
+        <v>35.023057452931504</v>
       </c>
       <c r="B11" s="3">
         <v>0.162434554973821</v>
       </c>
       <c r="C11" s="3">
-        <v>65.5147186297285</v>
+        <v>65.514718629728506</v>
       </c>
       <c r="D11" s="3">
-        <v>0.151178010471204</v>
+        <v>0.15117801047120399</v>
       </c>
       <c r="E11" s="3">
         <v>119.468429194206</v>
       </c>
       <c r="F11" s="3">
-        <v>0.155384615384615</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>0.15538461538461501</v>
+      </c>
+      <c r="G11" s="8">
+        <v>120.962686840868</v>
+      </c>
+      <c r="H11">
+        <v>0.14851300842555201</v>
+      </c>
+      <c r="I11" s="8">
+        <v>166.95479809683201</v>
+      </c>
+      <c r="J11">
+        <v>0.145884316203266</v>
+      </c>
+      <c r="K11" s="8">
+        <v>194.54006221638301</v>
+      </c>
+      <c r="L11">
+        <v>0.14300275739278001</v>
+      </c>
+      <c r="M11" s="8">
+        <v>239.61293140526999</v>
+      </c>
+      <c r="N11">
+        <v>0.14050489962356699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>41.5410353316459</v>
+        <v>41.541035331645901</v>
       </c>
       <c r="B12" s="3">
-        <v>0.16544502617801</v>
+        <v>0.16544502617800999</v>
       </c>
       <c r="C12" s="3">
         <v>78.9899795430116</v>
       </c>
       <c r="D12" s="3">
-        <v>0.15458115183246</v>
+        <v>0.15458115183245999</v>
       </c>
       <c r="E12" s="3">
-        <v>134.253972718323</v>
+        <v>134.25397271832301</v>
       </c>
       <c r="F12" s="3">
         <v>0.157846153846153</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="G12" s="8">
+        <v>136.16469003504201</v>
+      </c>
+      <c r="H12">
+        <v>0.150854224945902</v>
+      </c>
+      <c r="I12" s="8">
+        <v>182.61092087583</v>
+      </c>
+      <c r="J12">
+        <v>0.14744272658466701</v>
+      </c>
+      <c r="K12" s="8">
+        <v>210.19118367836799</v>
+      </c>
+      <c r="L12">
+        <v>0.14390899603562199</v>
+      </c>
+      <c r="M12" s="8">
+        <v>258.94102113556499</v>
+      </c>
+      <c r="N12">
+        <v>0.140887800454119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>49.9145313962761</v>
+        <v>49.914531396276097</v>
       </c>
       <c r="B13" s="3">
-        <v>0.168586387434554</v>
+        <v>0.16858638743455401</v>
       </c>
       <c r="C13" s="3">
-        <v>88.2857737249055</v>
+        <v>88.285773724905496</v>
       </c>
       <c r="D13" s="3">
-        <v>0.157198952879581</v>
+        <v>0.15719895287958099</v>
       </c>
       <c r="E13" s="3">
-        <v>148.488257629025</v>
+        <v>148.48825762902499</v>
       </c>
       <c r="F13" s="3">
-        <v>0.160615384615384</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>0.16061538461538399</v>
+      </c>
+      <c r="G13" s="8">
+        <v>149.52620856825601</v>
+      </c>
+      <c r="H13">
+        <v>0.15319624167697399</v>
+      </c>
+      <c r="I13" s="8">
+        <v>196.88768042251101</v>
+      </c>
+      <c r="J13">
+        <v>0.14913217147182001</v>
+      </c>
+      <c r="K13" s="8">
+        <v>227.225669426282</v>
+      </c>
+      <c r="L13">
+        <v>0.14520593756355801</v>
+      </c>
+      <c r="M13" s="8">
+        <v>271.827414552498</v>
+      </c>
+      <c r="N13">
+        <v>0.14127350202219899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>60.1471862972851</v>
+        <v>60.147186297285103</v>
       </c>
       <c r="B14" s="3">
-        <v>0.172251308900523</v>
+        <v>0.17225130890052301</v>
       </c>
       <c r="C14" s="3">
         <v>100.363024860441</v>
@@ -701,35 +1055,83 @@
         <v>166.006187596681</v>
       </c>
       <c r="F14" s="3">
-        <v>0.164153846153846</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>0.16415384615384601</v>
+      </c>
+      <c r="G14" s="8">
+        <v>168.87730435681399</v>
+      </c>
+      <c r="H14">
+        <v>0.156579132504892</v>
+      </c>
+      <c r="I14" s="8">
+        <v>204.71874260221799</v>
+      </c>
+      <c r="J14">
+        <v>0.150302679705655</v>
+      </c>
+      <c r="K14" s="8">
+        <v>241.95954934799499</v>
+      </c>
+      <c r="L14">
+        <v>0.146503879354896</v>
+      </c>
+      <c r="M14" s="8">
+        <v>286.55429263039201</v>
+      </c>
+      <c r="N14">
+        <v>0.14165840337955601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>71.2997122152491</v>
+        <v>71.299712215249102</v>
       </c>
       <c r="B15" s="3">
-        <v>0.175130890052356</v>
+        <v>0.17513089005235599</v>
       </c>
       <c r="C15" s="3">
         <v>110.12360875143</v>
       </c>
       <c r="D15" s="3">
-        <v>0.162565445026177</v>
+        <v>0.16256544502617701</v>
       </c>
       <c r="E15" s="3">
-        <v>189.004359443116</v>
+        <v>189.00435944311599</v>
       </c>
       <c r="F15" s="3">
-        <v>0.168153846153846</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>0.16815384615384599</v>
+      </c>
+      <c r="G15" s="8">
+        <v>197.899946986039</v>
+      </c>
+      <c r="H15">
+        <v>0.16113173135592301</v>
+      </c>
+      <c r="I15" s="8">
+        <v>222.219351095788</v>
+      </c>
+      <c r="J15">
+        <v>0.15238202726718</v>
+      </c>
+      <c r="K15" s="8">
+        <v>261.75776287755701</v>
+      </c>
+      <c r="L15">
+        <v>0.14819092360988301</v>
+      </c>
+      <c r="M15" s="8">
+        <v>298.058322024799</v>
+      </c>
+      <c r="N15">
+        <v>0.14178383641025399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>85.702125446413</v>
+        <v>85.702125446413007</v>
       </c>
       <c r="B16" s="3">
-        <v>0.178534031413612</v>
+        <v>0.17853403141361199</v>
       </c>
       <c r="C16" s="3">
         <v>120.340487500433</v>
@@ -741,78 +1143,174 @@
         <v>209.81859091548301</v>
       </c>
       <c r="F16" s="3">
-        <v>0.171076923076923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>0.17107692307692299</v>
+      </c>
+      <c r="G16" s="8">
+        <v>224.15886183361599</v>
+      </c>
+      <c r="H16">
+        <v>0.16529422747990299</v>
+      </c>
+      <c r="I16" s="8">
+        <v>238.33859583023499</v>
+      </c>
+      <c r="J16">
+        <v>0.15433154063903401</v>
+      </c>
+      <c r="K16" s="8">
+        <v>278.796249679082</v>
+      </c>
+      <c r="L16">
+        <v>0.15000960252866499</v>
+      </c>
+      <c r="M16" s="8">
+        <v>316.46917021482301</v>
+      </c>
+      <c r="N16">
+        <v>0.14255844038930199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>99.1664644083076</v>
+        <v>99.166464408307604</v>
       </c>
       <c r="B17" s="3">
-        <v>0.180759162303664</v>
+        <v>0.18075916230366401</v>
       </c>
       <c r="C17" s="3">
-        <v>131.48815921778</v>
+        <v>131.48815921778001</v>
       </c>
       <c r="D17" s="3">
         <v>0.166884816753926</v>
       </c>
       <c r="E17" s="3">
-        <v>228.446069469835</v>
+        <v>228.44606946983501</v>
       </c>
       <c r="F17" s="3">
-        <v>0.173230769230769</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>0.17323076923076899</v>
+      </c>
+      <c r="G17" s="8">
+        <v>249.952654198939</v>
+      </c>
+      <c r="H17">
+        <v>0.16880475191800501</v>
+      </c>
+      <c r="I17" s="8">
+        <v>253.539598761007</v>
+      </c>
+      <c r="J17">
+        <v>0.15654232281167299</v>
+      </c>
+      <c r="K17" s="8">
+        <v>294.91449415012602</v>
+      </c>
+      <c r="L17">
+        <v>0.15182868155280799</v>
+      </c>
+      <c r="M17" s="8">
+        <v>333.958775810963</v>
+      </c>
+      <c r="N17">
+        <v>0.14320301012599901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>117.7313546687</v>
+        <v>117.73135466870001</v>
       </c>
       <c r="B18" s="3">
-        <v>0.183115183246073</v>
+        <v>0.18311518324607301</v>
       </c>
       <c r="C18" s="3">
-        <v>145.884504698172</v>
+        <v>145.88450469817201</v>
       </c>
       <c r="D18" s="3">
         <v>0.169633507853403</v>
       </c>
       <c r="E18" s="3">
-        <v>249.81718464351</v>
+        <v>249.81718464350999</v>
       </c>
       <c r="F18" s="3">
         <v>0.175230769230769</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="G18" s="8">
+        <v>276.662687841131</v>
+      </c>
+      <c r="H18">
+        <v>0.171793138859899</v>
+      </c>
+      <c r="I18" s="8">
+        <v>265.51475221808403</v>
+      </c>
+      <c r="J18">
+        <v>0.158102333614518</v>
+      </c>
+      <c r="K18" s="8">
+        <v>311.49185952300701</v>
+      </c>
+      <c r="L18">
+        <v>0.15351712617655899</v>
+      </c>
+      <c r="M18" s="8">
+        <v>349.60789674614301</v>
+      </c>
+      <c r="N18">
+        <v>0.14384838007341899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>131.651988488609</v>
+        <v>131.65198848860899</v>
       </c>
       <c r="B19" s="3">
-        <v>0.184554973821989</v>
+        <v>0.18455497382198899</v>
       </c>
       <c r="C19" s="3">
-        <v>156.101383447175</v>
+        <v>156.10138344717501</v>
       </c>
       <c r="D19" s="3">
-        <v>0.171596858638743</v>
+        <v>0.17159685863874299</v>
       </c>
       <c r="E19" s="3">
-        <v>268.446069469835</v>
+        <v>268.44606946983498</v>
       </c>
       <c r="F19" s="3">
         <v>0.177230769230769</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="G19" s="8">
+        <v>296.92202279933701</v>
+      </c>
+      <c r="H19">
+        <v>0.17361041740991701</v>
+      </c>
+      <c r="I19" s="8">
+        <v>280.25363345681001</v>
+      </c>
+      <c r="J19">
+        <v>0.160052447144414</v>
+      </c>
+      <c r="K19" s="8">
+        <v>326.68886140016798</v>
+      </c>
+      <c r="L19">
+        <v>0.15520617095835201</v>
+      </c>
+      <c r="M19" s="8">
+        <v>363.87865471240701</v>
+      </c>
+      <c r="N19">
+        <v>0.14475521887430301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>148.815228320793</v>
+        <v>148.81522832079301</v>
       </c>
       <c r="B20" s="3">
-        <v>0.185732984293193</v>
+        <v>0.18573298429319299</v>
       </c>
       <c r="C20" s="3">
-        <v>174.203911098782</v>
+        <v>174.20391109878199</v>
       </c>
       <c r="D20" s="3">
         <v>0.174083769633507</v>
@@ -821,32 +1319,68 @@
         <v>286.533539586556</v>
       </c>
       <c r="F20" s="3">
-        <v>0.178461538461538</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>0.17846153846153801</v>
+      </c>
+      <c r="G20" s="8">
+        <v>327.76914587508003</v>
+      </c>
+      <c r="H20">
+        <v>0.17607526648684099</v>
+      </c>
+      <c r="I20" s="8">
+        <v>298.67548454426299</v>
+      </c>
+      <c r="J20">
+        <v>0.162261828948289</v>
+      </c>
+      <c r="K20" s="8">
+        <v>344.18746936693299</v>
+      </c>
+      <c r="L20">
+        <v>0.15702464982445299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>164.584099025692</v>
+        <v>164.58409902569201</v>
       </c>
       <c r="B21" s="3">
-        <v>0.186518324607329</v>
+        <v>0.18651832460732901</v>
       </c>
       <c r="C21" s="3">
-        <v>192.304011650081</v>
+        <v>192.30401165008101</v>
       </c>
       <c r="D21" s="3">
-        <v>0.17630890052356</v>
+        <v>0.17630890052355999</v>
       </c>
       <c r="E21" s="3">
-        <v>316.682604415693</v>
+        <v>316.68260441569299</v>
       </c>
       <c r="F21" s="3">
         <v>0.180153846153846</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="G21" s="8">
+        <v>353.08781312412202</v>
+      </c>
+      <c r="H21">
+        <v>0.17762947576195001</v>
+      </c>
+      <c r="I21" s="8">
+        <v>321.24242717248802</v>
+      </c>
+      <c r="J21">
+        <v>0.16499114766888601</v>
+      </c>
+      <c r="K21" s="8">
+        <v>354.78025880148402</v>
+      </c>
+      <c r="L21">
+        <v>0.158324392089917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>181.743698207413</v>
+        <v>181.74369820741299</v>
       </c>
       <c r="B22" s="3">
         <v>0.187303664921465</v>
@@ -855,27 +1389,45 @@
         <v>210.864047709857</v>
       </c>
       <c r="D22" s="3">
-        <v>0.178141361256544</v>
+        <v>0.17814136125654401</v>
       </c>
       <c r="E22" s="3">
-        <v>348.479819997187</v>
+        <v>348.47981999718701</v>
       </c>
       <c r="F22" s="3">
-        <v>0.181538461538461</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>0.18153846153846101</v>
+      </c>
+      <c r="G22" s="8">
+        <v>364.13672267030302</v>
+      </c>
+      <c r="H22">
+        <v>0.178407280583887</v>
+      </c>
+      <c r="I22" s="8">
+        <v>341.96388382274</v>
+      </c>
+      <c r="J22">
+        <v>0.16706909486164601</v>
+      </c>
+      <c r="K22" s="8">
+        <v>363.53056304826902</v>
+      </c>
+      <c r="L22">
+        <v>0.159364065870679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>208.639610277036</v>
+        <v>208.63961027703601</v>
       </c>
       <c r="B23" s="3">
-        <v>0.188219895287958</v>
+        <v>0.18821989528795799</v>
       </c>
       <c r="C23" s="3">
-        <v>230.348808987205</v>
+        <v>230.34880898720499</v>
       </c>
       <c r="D23" s="3">
-        <v>0.179712041884816</v>
+        <v>0.17971204188481599</v>
       </c>
       <c r="E23" s="3">
         <v>363.28223878498</v>
@@ -883,48 +1435,61 @@
       <c r="F23" s="3">
         <v>0.182153846153846</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="I23" s="8">
+        <v>356.23964310601798</v>
+      </c>
+      <c r="J23">
+        <v>0.168628105401088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>236.923823723171</v>
+        <v>236.92382372317101</v>
       </c>
       <c r="B24" s="3">
         <v>0.188874345549738</v>
       </c>
       <c r="C24" s="3">
-        <v>245.658957733781</v>
+        <v>245.65895773378099</v>
       </c>
       <c r="D24" s="3">
-        <v>0.181020942408376</v>
+        <v>0.18102094240837599</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="I24" s="8">
+        <v>364.06870475891901</v>
+      </c>
+      <c r="J24">
+        <v>0.1695377449395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>261.49821434763</v>
+        <v>261.49821434762998</v>
       </c>
       <c r="B25" s="3">
-        <v>0.189397905759162</v>
+        <v>0.18939790575916199</v>
       </c>
       <c r="C25" s="3">
-        <v>265.137651260358</v>
+        <v>265.13765126035798</v>
       </c>
       <c r="D25" s="3">
-        <v>0.181937172774869</v>
+        <v>0.18193717277486901</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>280.970840123435</v>
+        <v>280.97084012343498</v>
       </c>
       <c r="B26" s="3">
-        <v>0.189659685863874</v>
+        <v>0.18965968586387399</v>
       </c>
       <c r="C26" s="3">
-        <v>285.079920945875</v>
+        <v>285.07992094587502</v>
       </c>
       <c r="D26" s="3">
         <v>0.182853403141361</v>
@@ -932,31 +1497,31 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>306.007593356679</v>
+        <v>306.00759335667902</v>
       </c>
       <c r="B27" s="3">
         <v>0.190052356020942</v>
       </c>
       <c r="C27" s="3">
-        <v>300.38400194168</v>
+        <v>300.38400194168003</v>
       </c>
       <c r="D27" s="3">
-        <v>0.183507853403141</v>
+        <v>0.18350785340314099</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>328.724038694913</v>
+        <v>328.72403869491302</v>
       </c>
       <c r="B28" s="3">
-        <v>0.190183246073298</v>
+        <v>0.19018324607329801</v>
       </c>
       <c r="C28" s="3">
-        <v>318.003536631878</v>
+        <v>318.00353663187798</v>
       </c>
       <c r="D28" s="3">
         <v>0.183900523560209</v>
@@ -964,31 +1529,31 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>352.831212509968</v>
       </c>
       <c r="B29" s="3">
-        <v>0.190314136125654</v>
+        <v>0.19031413612565401</v>
       </c>
       <c r="C29" s="3">
-        <v>327.279914011303</v>
+        <v>327.27991401130299</v>
       </c>
       <c r="D29" s="3">
-        <v>0.184424083769633</v>
+        <v>0.18442408376963301</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>361.641586630144</v>
+        <v>361.64158663014399</v>
       </c>
       <c r="B30" s="3">
-        <v>0.190575916230366</v>
+        <v>0.19057591623036599</v>
       </c>
       <c r="C30" s="3">
-        <v>348.146908914392</v>
+        <v>348.14690891439199</v>
       </c>
       <c r="D30" s="3">
         <v>0.185078534031413</v>
@@ -996,14 +1561,14 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3">
         <v>364.840504836864</v>
       </c>
       <c r="D31" s="3">
-        <v>0.185602094240837</v>
+        <v>0.18560209424083701</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1014,25 +1579,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="4" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,33 +1616,81 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0.0450007031359973</v>
+        <v>4.50007031359973E-2</v>
       </c>
       <c r="B2" s="3">
-        <v>0.140307692307692</v>
+        <v>0.14030769230769199</v>
       </c>
       <c r="C2" s="3">
-        <v>0.594853044578826</v>
+        <v>0.59485304457882604</v>
       </c>
       <c r="D2" s="3">
-        <v>0.140153846153846</v>
+        <v>0.14015384615384599</v>
       </c>
       <c r="E2" s="4">
-        <v>1.14470538602166</v>
+        <v>1.1447053860216601</v>
       </c>
       <c r="F2" s="3">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G2" s="9">
+        <v>63.8456460201186</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.14045088539982101</v>
+      </c>
+      <c r="I2" s="9">
+        <v>111.694246151486</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.13990834253019899</v>
+      </c>
+      <c r="K2" s="9">
+        <v>8.6201032938674</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.13904011389665899</v>
+      </c>
+      <c r="M2" s="9">
+        <v>7.7068628072058996</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0.13995355443600099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>20.8072001125017</v>
       </c>
       <c r="B3" s="3">
-        <v>0.148923076923076</v>
+        <v>0.14892307692307599</v>
       </c>
       <c r="C3" s="3">
         <v>14.2947546055407</v>
@@ -1086,53 +1699,125 @@
         <v>0.141384615384615</v>
       </c>
       <c r="E3" s="3">
-        <v>8.82154408662636</v>
+        <v>8.8215440866263606</v>
       </c>
       <c r="F3" s="3">
-        <v>0.140153846153846</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+        <v>0.14015384615384599</v>
+      </c>
+      <c r="G3" s="8">
+        <v>70.747463498721302</v>
+      </c>
+      <c r="H3">
+        <v>0.14044788460961299</v>
+      </c>
+      <c r="I3" s="8">
+        <v>124.60064483647299</v>
+      </c>
+      <c r="J3">
+        <v>0.14290273105251</v>
+      </c>
+      <c r="K3" s="8">
+        <v>19.667012313242498</v>
+      </c>
+      <c r="L3">
+        <v>0.13955705002317201</v>
+      </c>
+      <c r="M3" s="8">
+        <v>15.524921562678101</v>
+      </c>
+      <c r="N3">
+        <v>0.13942841614958601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>27.9130923920686</v>
+        <v>27.913092392068599</v>
       </c>
       <c r="B4" s="3">
-        <v>0.151538461538461</v>
+        <v>0.15153846153846101</v>
       </c>
       <c r="C4" s="3">
         <v>27.4588665447897</v>
       </c>
       <c r="D4" s="3">
-        <v>0.141230769230769</v>
+        <v>0.14123076923076899</v>
       </c>
       <c r="E4" s="3">
-        <v>18.1507523555055</v>
+        <v>18.150752355505499</v>
       </c>
       <c r="F4" s="3">
         <v>0.139538461538461</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="G4" s="8">
+        <v>77.654282294337506</v>
+      </c>
+      <c r="H4">
+        <v>0.14109705555796301</v>
+      </c>
+      <c r="I4" s="8">
+        <v>132.86582133295099</v>
+      </c>
+      <c r="J4">
+        <v>0.14068174619316401</v>
+      </c>
+      <c r="K4" s="8">
+        <v>37.153617119174697</v>
+      </c>
+      <c r="L4">
+        <v>0.13981031671673499</v>
+      </c>
+      <c r="M4" s="8">
+        <v>21.510497764411301</v>
+      </c>
+      <c r="N4">
+        <v>0.13994755285558499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>34.9852341442835</v>
+        <v>34.985234144283503</v>
       </c>
       <c r="B5" s="3">
         <v>0.157846153846153</v>
       </c>
       <c r="C5" s="3">
-        <v>34.5886654478976</v>
+        <v>34.588665447897597</v>
       </c>
       <c r="D5" s="3">
-        <v>0.141230769230769</v>
+        <v>0.14123076923076899</v>
       </c>
       <c r="E5" s="3">
-        <v>27.4813668963577</v>
+        <v>27.481366896357699</v>
       </c>
       <c r="F5" s="3">
-        <v>0.13876923076923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+        <v>0.13876923076923001</v>
+      </c>
+      <c r="G5" s="8">
+        <v>83.178737067427704</v>
+      </c>
+      <c r="H5">
+        <v>0.14148595796893099</v>
+      </c>
+      <c r="I5" s="8">
+        <v>139.77163986516399</v>
+      </c>
+      <c r="J5">
+        <v>0.14120048279380201</v>
+      </c>
+      <c r="K5" s="8">
+        <v>42.670069785043403</v>
+      </c>
+      <c r="L5">
+        <v>0.139155744346011</v>
+      </c>
+      <c r="M5" s="8">
+        <v>28.4083141894032</v>
+      </c>
+      <c r="N5">
+        <v>0.13942281467452999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>40.9984531008297</v>
       </c>
@@ -1140,167 +1825,359 @@
         <v>0.16</v>
       </c>
       <c r="C6" s="3">
-        <v>41.1700182815356</v>
+        <v>41.170018281535597</v>
       </c>
       <c r="D6" s="3">
-        <v>0.141230769230769</v>
+        <v>0.14123076923076899</v>
       </c>
       <c r="E6" s="3">
-        <v>49.4009281395021</v>
+        <v>49.400928139502099</v>
       </c>
       <c r="F6" s="3">
-        <v>0.14076923076923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+        <v>0.14076923076923001</v>
+      </c>
+      <c r="G6" s="8">
+        <v>97.921619359764705</v>
+      </c>
+      <c r="H6">
+        <v>0.14395780888967399</v>
+      </c>
+      <c r="I6" s="8">
+        <v>147.59970125466299</v>
+      </c>
+      <c r="J6">
+        <v>0.141979687984502</v>
+      </c>
+      <c r="K6" s="8">
+        <v>57.390946282521</v>
+      </c>
+      <c r="L6">
+        <v>0.13875803961709901</v>
+      </c>
+      <c r="M6" s="8">
+        <v>34.857012346584597</v>
+      </c>
+      <c r="N6">
+        <v>0.14033305437098401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>49.1970187034172</v>
       </c>
       <c r="B7" s="3">
-        <v>0.163076923076923</v>
+        <v>0.16307692307692301</v>
       </c>
       <c r="C7" s="3">
-        <v>49.3854591477991</v>
+        <v>49.385459147799097</v>
       </c>
       <c r="D7" s="3">
         <v>0.142461538461538</v>
       </c>
       <c r="E7" s="3">
-        <v>56.53072704261</v>
+        <v>56.530727042610003</v>
       </c>
       <c r="F7" s="3">
-        <v>0.14076923076923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+        <v>0.14076923076923001</v>
+      </c>
+      <c r="G7" s="8">
+        <v>105.743679168847</v>
+      </c>
+      <c r="H7">
+        <v>0.143954407994105</v>
+      </c>
+      <c r="I7" s="8">
+        <v>154.497517679655</v>
+      </c>
+      <c r="J7">
+        <v>0.141454949803448</v>
+      </c>
+      <c r="K7" s="8">
+        <v>79.0146405220041</v>
+      </c>
+      <c r="L7">
+        <v>0.13848776844569</v>
+      </c>
+      <c r="M7" s="8">
+        <v>41.7518279813684</v>
+      </c>
+      <c r="N7">
+        <v>0.139417013146795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>55.7783715370552</v>
       </c>
       <c r="B8" s="3">
-        <v>0.163076923076923</v>
+        <v>0.16307692307692301</v>
       </c>
       <c r="C8" s="3">
-        <v>55.9527492617072</v>
+        <v>55.952749261707197</v>
       </c>
       <c r="D8" s="3">
-        <v>0.144</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="E8" s="3">
-        <v>63.6633384896638</v>
+        <v>63.663338489663801</v>
       </c>
       <c r="F8" s="3">
         <v>0.140461538461538</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="G8" s="8">
+        <v>112.187376009015</v>
+      </c>
+      <c r="H8">
+        <v>0.14421247595200001</v>
+      </c>
+      <c r="I8" s="8">
+        <v>160.49109598861</v>
+      </c>
+      <c r="J8">
+        <v>0.14301756129113999</v>
+      </c>
+      <c r="K8" s="8">
+        <v>105.24854878451301</v>
+      </c>
+      <c r="L8">
+        <v>0.13938940587688001</v>
+      </c>
+      <c r="M8" s="8">
+        <v>49.115767152016701</v>
+      </c>
+      <c r="N8">
+        <v>0.139674680999329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>62.8870763605681</v>
+        <v>62.887076360568102</v>
       </c>
       <c r="B9" s="3">
-        <v>0.165384615384615</v>
+        <v>0.16538461538461499</v>
       </c>
       <c r="C9" s="3">
-        <v>63.074110532977</v>
+        <v>63.074110532977002</v>
       </c>
       <c r="D9" s="3">
-        <v>0.144923076923076</v>
+        <v>0.14492307692307599</v>
       </c>
       <c r="E9" s="3">
-        <v>70.7931373927717</v>
+        <v>70.793137392771698</v>
       </c>
       <c r="F9" s="3">
         <v>0.140461538461538</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="G9" s="8">
+        <v>118.653078644042</v>
+      </c>
+      <c r="H9">
+        <v>0.14734009955954999</v>
+      </c>
+      <c r="I9" s="8">
+        <v>168.318157114706</v>
+      </c>
+      <c r="J9">
+        <v>0.14366633213412799</v>
+      </c>
+      <c r="K9" s="8">
+        <v>112.60848690154999</v>
+      </c>
+      <c r="L9">
+        <v>0.13912533633856899</v>
+      </c>
+      <c r="M9" s="8">
+        <v>56.016584367216701</v>
+      </c>
+      <c r="N9">
+        <v>0.13954124586141001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>69.974687104486</v>
+        <v>69.974687104485994</v>
       </c>
       <c r="B10" s="3">
         <v>0.17</v>
       </c>
       <c r="C10" s="3">
-        <v>69.6217128392631</v>
+        <v>69.621712839263097</v>
       </c>
       <c r="D10" s="3">
-        <v>0.148615384615384</v>
+        <v>0.14861538461538401</v>
       </c>
       <c r="E10" s="3">
-        <v>78.4657572774574</v>
+        <v>78.465757277457399</v>
       </c>
       <c r="F10" s="3">
-        <v>0.141076923076923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+        <v>0.14107692307692299</v>
+      </c>
+      <c r="G10" s="8">
+        <v>124.64665695299701</v>
+      </c>
+      <c r="H10">
+        <v>0.14890271104724201</v>
+      </c>
+      <c r="I10" s="8">
+        <v>174.76785553529001</v>
+      </c>
+      <c r="J10">
+        <v>0.14470700617829299</v>
+      </c>
+      <c r="K10" s="8">
+        <v>125.04576205067301</v>
+      </c>
+      <c r="L10">
+        <v>0.140946015784156</v>
+      </c>
+      <c r="M10" s="8">
+        <v>64.297765078137203</v>
+      </c>
+      <c r="N10">
+        <v>0.139407210565448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>76.565883841935</v>
+        <v>76.565883841935005</v>
       </c>
       <c r="B11" s="3">
-        <v>0.168923076923076</v>
+        <v>0.16892307692307601</v>
       </c>
       <c r="C11" s="3">
-        <v>76.7416678385599</v>
+        <v>76.741667838559906</v>
       </c>
       <c r="D11" s="3">
-        <v>0.149692307692307</v>
+        <v>0.14969230769230699</v>
       </c>
       <c r="E11" s="3">
-        <v>84.4691323301926</v>
+        <v>84.469132330192593</v>
       </c>
       <c r="F11" s="3">
         <v>0.144307692307692</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="G11" s="8">
+        <v>125.546894015424</v>
+      </c>
+      <c r="H11">
+        <v>0.14629362398765</v>
+      </c>
+      <c r="I11" s="8">
+        <v>182.15079971059001</v>
+      </c>
+      <c r="J11">
+        <v>0.14744292663734701</v>
+      </c>
+      <c r="K11" s="8">
+        <v>134.23618219464399</v>
+      </c>
+      <c r="L11">
+        <v>0.139376802558006</v>
+      </c>
+      <c r="M11" s="8">
+        <v>70.741461918305106</v>
+      </c>
+      <c r="N11">
+        <v>0.13966527852334401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>83.135986499789</v>
+        <v>83.135986499788999</v>
       </c>
       <c r="B12" s="3">
-        <v>0.170153846153846</v>
+        <v>0.17015384615384599</v>
       </c>
       <c r="C12" s="3">
-        <v>83.292082688792</v>
+        <v>83.292082688791993</v>
       </c>
       <c r="D12" s="3">
         <v>0.153076923076923</v>
       </c>
       <c r="E12" s="3">
-        <v>91.5806496976515</v>
+        <v>91.580649697651495</v>
       </c>
       <c r="F12" s="3">
         <v>0.146307692307692</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="G12" s="8">
+        <v>133.37895645853399</v>
+      </c>
+      <c r="H12">
+        <v>0.14759456656919601</v>
+      </c>
+      <c r="I12" s="8">
+        <v>189.06061929641399</v>
+      </c>
+      <c r="J12">
+        <v>0.148483400628832</v>
+      </c>
+      <c r="K12" s="8">
+        <v>140.23476182061199</v>
+      </c>
+      <c r="L12">
+        <v>0.14159158578425601</v>
+      </c>
+      <c r="M12" s="8">
+        <v>77.638278079894306</v>
+      </c>
+      <c r="N12">
+        <v>0.139010105994578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>90.7846997609337</v>
+        <v>90.784699760933705</v>
       </c>
       <c r="B13" s="3">
         <v>0.173384615384615</v>
       </c>
       <c r="C13" s="3">
-        <v>90.9478273098016</v>
+        <v>90.947827309801596</v>
       </c>
       <c r="D13" s="3">
-        <v>0.155538461538461</v>
+        <v>0.15553846153846099</v>
       </c>
       <c r="E13" s="3">
-        <v>98.1507523555055</v>
+        <v>98.150752355505503</v>
       </c>
       <c r="F13" s="3">
-        <v>0.147538461538461</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+        <v>0.14753846153846101</v>
+      </c>
+      <c r="G13" s="8">
+        <v>140.766901950847</v>
+      </c>
+      <c r="H13">
+        <v>0.150982658766808</v>
+      </c>
+      <c r="I13" s="8">
+        <v>195.972439409044</v>
+      </c>
+      <c r="J13">
+        <v>0.14978474331573899</v>
+      </c>
+      <c r="K13" s="8">
+        <v>147.12057508477201</v>
+      </c>
+      <c r="L13">
+        <v>0.13950163543066299</v>
+      </c>
+      <c r="M13" s="8">
+        <v>84.560100826550993</v>
+      </c>
+      <c r="N13">
+        <v>0.14161579215860101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>98.4390381099704</v>
+        <v>98.439038109970397</v>
       </c>
       <c r="B14" s="3">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="C14" s="3">
-        <v>98.0382505976655</v>
+        <v>98.038250597665495</v>
       </c>
       <c r="D14" s="3">
         <v>0.159846153846153</v>
@@ -1309,50 +2186,122 @@
         <v>105.810715792434</v>
       </c>
       <c r="F14" s="3">
-        <v>0.149538461538461</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+        <v>0.14953846153846101</v>
+      </c>
+      <c r="G14" s="8">
+        <v>147.21660037143101</v>
+      </c>
+      <c r="H14">
+        <v>0.15202333281097299</v>
+      </c>
+      <c r="I14" s="8">
+        <v>202.88225899486801</v>
+      </c>
+      <c r="J14">
+        <v>0.15082521730722401</v>
+      </c>
+      <c r="K14" s="8">
+        <v>154.478512675004</v>
+      </c>
+      <c r="L14">
+        <v>0.13897669719692801</v>
+      </c>
+      <c r="M14" s="8">
+        <v>91.446914354113204</v>
+      </c>
+      <c r="N14">
+        <v>0.13965627615272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>105.01195331177</v>
       </c>
       <c r="B15" s="3">
-        <v>0.176923076923076</v>
+        <v>0.17692307692307599</v>
       </c>
       <c r="C15" s="3">
         <v>105.172268316692</v>
       </c>
       <c r="D15" s="3">
-        <v>0.159384615384615</v>
+        <v>0.15938461538461501</v>
       </c>
       <c r="E15" s="3">
         <v>111.282520039375</v>
       </c>
       <c r="F15" s="3">
-        <v>0.150923076923076</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+        <v>0.15092307692307599</v>
+      </c>
+      <c r="G15" s="8">
+        <v>154.130421010866</v>
+      </c>
+      <c r="H15">
+        <v>0.153585544193304</v>
+      </c>
+      <c r="I15" s="8">
+        <v>209.33995952267401</v>
+      </c>
+      <c r="J15">
+        <v>0.15290936613308101</v>
+      </c>
+      <c r="K15" s="8">
+        <v>161.38033015360699</v>
+      </c>
+      <c r="L15">
+        <v>0.13897369640672</v>
+      </c>
+      <c r="M15" s="8">
+        <v>98.823856948996493</v>
+      </c>
+      <c r="N15">
+        <v>0.14160959052550501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>112.160033750527</v>
+        <v>112.16003375052701</v>
       </c>
       <c r="B16" s="3">
-        <v>0.174923076923076</v>
+        <v>0.17492307692307599</v>
       </c>
       <c r="C16" s="3">
         <v>111.178455913373</v>
       </c>
       <c r="D16" s="3">
-        <v>0.162307692307692</v>
+        <v>0.16230769230769199</v>
       </c>
       <c r="E16" s="3">
         <v>118.934045844466</v>
       </c>
       <c r="F16" s="3">
-        <v>0.153846153846153</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+        <v>0.15384615384615299</v>
+      </c>
+      <c r="G16" s="8">
+        <v>161.50236228873601</v>
+      </c>
+      <c r="H16">
+        <v>0.15488668682753101</v>
+      </c>
+      <c r="I16" s="8">
+        <v>217.17002143897801</v>
+      </c>
+      <c r="J16">
+        <v>0.15394944001920499</v>
+      </c>
+      <c r="K16" s="8">
+        <v>168.28314789561199</v>
+      </c>
+      <c r="L16">
+        <v>0.139101129964223</v>
+      </c>
+      <c r="M16" s="8">
+        <v>105.249549047915</v>
+      </c>
+      <c r="N16">
+        <v>0.13951984022459199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>118.693573337083</v>
       </c>
@@ -1363,16 +2312,40 @@
         <v>118.839825622275</v>
       </c>
       <c r="D17" s="3">
-        <v>0.164153846153846</v>
+        <v>0.16415384615384601</v>
       </c>
       <c r="E17" s="3">
-        <v>126.059625931655</v>
+        <v>126.05962593165501</v>
       </c>
       <c r="F17" s="3">
-        <v>0.154307692307692</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+        <v>0.15430769230769201</v>
+      </c>
+      <c r="G17" s="8">
+        <v>168.417183191573</v>
+      </c>
+      <c r="H17">
+        <v>0.156579332557573</v>
+      </c>
+      <c r="I17" s="8">
+        <v>225.009085725907</v>
+      </c>
+      <c r="J17">
+        <v>0.15616342303473199</v>
+      </c>
+      <c r="K17" s="8">
+        <v>175.18496537421501</v>
+      </c>
+      <c r="L17">
+        <v>0.13909812917401501</v>
+      </c>
+      <c r="M17" s="8">
+        <v>112.152366789921</v>
+      </c>
+      <c r="N17">
+        <v>0.13964727378209499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>124.186471663619</v>
       </c>
@@ -1383,47 +2356,95 @@
         <v>123.764590071719</v>
       </c>
       <c r="D18" s="3">
-        <v>0.165384615384615</v>
+        <v>0.16538461538461499</v>
       </c>
       <c r="E18" s="3">
-        <v>123.293488960764</v>
+        <v>123.29348896076399</v>
       </c>
       <c r="F18" s="3">
         <v>0.156923076923076</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="G18" s="8">
+        <v>175.77812157201399</v>
+      </c>
+      <c r="H18">
+        <v>0.156445697366973</v>
+      </c>
+      <c r="I18" s="8">
+        <v>230.51653602115201</v>
+      </c>
+      <c r="J18">
+        <v>0.154334941534604</v>
+      </c>
+      <c r="K18" s="8">
+        <v>182.10378733066301</v>
+      </c>
+      <c r="L18">
+        <v>0.14131251229490399</v>
+      </c>
+      <c r="M18" s="8">
+        <v>119.987430023239</v>
+      </c>
+      <c r="N18">
+        <v>0.141339519406777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>125.297426522289</v>
       </c>
       <c r="B19" s="3">
-        <v>0.177692307692307</v>
+        <v>0.17769230769230701</v>
       </c>
       <c r="C19" s="3">
         <v>125.414147096048</v>
       </c>
       <c r="D19" s="3">
-        <v>0.164923076923076</v>
+        <v>0.16492307692307601</v>
       </c>
       <c r="E19" s="3">
         <v>133.166924483195</v>
       </c>
       <c r="F19" s="3">
-        <v>0.15676923076923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>0.15676923076922999</v>
+      </c>
+      <c r="G19" s="8">
+        <v>182.240823416833</v>
+      </c>
+      <c r="H19">
+        <v>0.159182017931388</v>
+      </c>
+      <c r="I19" s="8">
+        <v>238.817722000126</v>
+      </c>
+      <c r="J19">
+        <v>0.15680959319287399</v>
+      </c>
+      <c r="K19" s="8">
+        <v>189.01460717988999</v>
+      </c>
+      <c r="L19">
+        <v>0.14248342063409999</v>
+      </c>
+      <c r="M19" s="8">
+        <v>126.875243814204</v>
+      </c>
+      <c r="N19">
+        <v>0.139510437748607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>132.957389959218</v>
+        <v>132.95738995921801</v>
       </c>
       <c r="B20" s="3">
-        <v>0.179692307692307</v>
+        <v>0.17969230769230701</v>
       </c>
       <c r="C20" s="3">
         <v>133.079735620869</v>
       </c>
       <c r="D20" s="3">
-        <v>0.166307692307692</v>
+        <v>0.16630769230769199</v>
       </c>
       <c r="E20" s="3">
         <v>140.267191674869</v>
@@ -1431,30 +2452,78 @@
       <c r="F20" s="3">
         <v>0.16</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="G20" s="8">
+        <v>189.161645900087</v>
+      </c>
+      <c r="H20">
+        <v>0.16165726974770001</v>
+      </c>
+      <c r="I20" s="8">
+        <v>245.2634193671</v>
+      </c>
+      <c r="J20">
+        <v>0.157328529846192</v>
+      </c>
+      <c r="K20" s="8">
+        <v>195.921425975506</v>
+      </c>
+      <c r="L20">
+        <v>0.14313259158245001</v>
+      </c>
+      <c r="M20" s="8">
+        <v>133.780062083015</v>
+      </c>
+      <c r="N20">
+        <v>0.13989874000153299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>140.060469694838</v>
+        <v>140.06046969483799</v>
       </c>
       <c r="B21" s="3">
-        <v>0.182615384615384</v>
+        <v>0.18261538461538401</v>
       </c>
       <c r="C21" s="3">
-        <v>140.181409084516</v>
+        <v>140.18140908451599</v>
       </c>
       <c r="D21" s="3">
-        <v>0.169384615384615</v>
+        <v>0.16938461538461499</v>
       </c>
       <c r="E21" s="3">
-        <v>146.298692167065</v>
+        <v>146.29869216706501</v>
       </c>
       <c r="F21" s="3">
-        <v>0.160153846153846</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>0.16015384615384601</v>
+      </c>
+      <c r="G21" s="8">
+        <v>195.61134432067101</v>
+      </c>
+      <c r="H21">
+        <v>0.162697943791865</v>
+      </c>
+      <c r="I21" s="8">
+        <v>252.181241060145</v>
+      </c>
+      <c r="J21">
+        <v>0.159412478619369</v>
+      </c>
+      <c r="K21" s="8">
+        <v>203.28536514615499</v>
+      </c>
+      <c r="L21">
+        <v>0.14339025943498401</v>
+      </c>
+      <c r="M21" s="8">
+        <v>140.22876024019601</v>
+      </c>
+      <c r="N21">
+        <v>0.140808979697987</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>146.665729152017</v>
+        <v>146.66572915201701</v>
       </c>
       <c r="B22" s="3">
         <v>0.18</v>
@@ -1463,16 +2532,40 @@
         <v>146.768387006046</v>
       </c>
       <c r="D22" s="3">
-        <v>0.16876923076923</v>
+        <v>0.16876923076923001</v>
       </c>
       <c r="E22" s="3">
-        <v>153.969905779777</v>
+        <v>153.96990577977701</v>
       </c>
       <c r="F22" s="3">
         <v>0.160923076923076</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="G22" s="8">
+        <v>202.99528875937301</v>
+      </c>
+      <c r="H22">
+        <v>0.16556429859863001</v>
+      </c>
+      <c r="I22" s="8">
+        <v>260.00630165943699</v>
+      </c>
+      <c r="J22">
+        <v>0.15980038076693501</v>
+      </c>
+      <c r="K22" s="8">
+        <v>209.72806172291999</v>
+      </c>
+      <c r="L22">
+        <v>0.14351789304516799</v>
+      </c>
+      <c r="M22" s="8">
+        <v>147.58069625001201</v>
+      </c>
+      <c r="N22">
+        <v>0.13950143537798201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>154.325692588946</v>
       </c>
@@ -1480,61 +2573,133 @@
         <v>0.182</v>
       </c>
       <c r="C23" s="3">
-        <v>153.877091829559</v>
+        <v>153.87709182955899</v>
       </c>
       <c r="D23" s="3">
-        <v>0.171076923076923</v>
+        <v>0.17107692307692299</v>
       </c>
       <c r="E23" s="3">
-        <v>161.085641963155</v>
+        <v>161.08564196315501</v>
       </c>
       <c r="F23" s="3">
-        <v>0.162461538461538</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>0.16246153846153799</v>
+      </c>
+      <c r="G23" s="8">
+        <v>209.89010439415699</v>
+      </c>
+      <c r="H23">
+        <v>0.164648257374441</v>
+      </c>
+      <c r="I23" s="8">
+        <v>266.92312308907998</v>
+      </c>
+      <c r="J23">
+        <v>0.16175389519239999</v>
+      </c>
+      <c r="K23" s="8">
+        <v>217.565125483043</v>
+      </c>
+      <c r="L23">
+        <v>0.14547100736527199</v>
+      </c>
+      <c r="M23" s="8">
+        <v>154.480513201809</v>
+      </c>
+      <c r="N23">
+        <v>0.13923756589235101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>160.364224441006</v>
       </c>
       <c r="B24" s="3">
-        <v>0.181384615384615</v>
+        <v>0.18138461538461501</v>
       </c>
       <c r="C24" s="3">
         <v>160.452819575305</v>
       </c>
       <c r="D24" s="3">
-        <v>0.171692307692307</v>
+        <v>0.17169230769230701</v>
       </c>
       <c r="E24" s="3">
-        <v>168.191534242722</v>
+        <v>168.19153424272201</v>
       </c>
       <c r="F24" s="3">
-        <v>0.165076923076923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>0.16507692307692301</v>
+      </c>
+      <c r="G24" s="8">
+        <v>217.722166837267</v>
+      </c>
+      <c r="H24">
+        <v>0.165949199955988</v>
+      </c>
+      <c r="I24" s="8">
+        <v>273.36381913904</v>
+      </c>
+      <c r="J24">
+        <v>0.161620660107161</v>
+      </c>
+      <c r="K24" s="8">
+        <v>224.018824957238</v>
+      </c>
+      <c r="L24">
+        <v>0.147033418800284</v>
+      </c>
+      <c r="M24" s="8">
+        <v>161.38033015360699</v>
+      </c>
+      <c r="N24">
+        <v>0.13897369640672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>168.578259035297</v>
+        <v>168.57825903529701</v>
       </c>
       <c r="B25" s="3">
-        <v>0.18276923076923</v>
+        <v>0.18276923076922999</v>
       </c>
       <c r="C25" s="3">
         <v>167.571368302629</v>
       </c>
       <c r="D25" s="3">
-        <v>0.172923076923076</v>
+        <v>0.17292307692307601</v>
       </c>
       <c r="E25" s="3">
-        <v>174.784137252144</v>
+        <v>174.78413725214401</v>
       </c>
       <c r="F25" s="3">
         <v>0.163846153846153</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="G25" s="8">
+        <v>224.180867628475</v>
+      </c>
+      <c r="H25">
+        <v>0.16816378312955699</v>
+      </c>
+      <c r="I25" s="8">
+        <v>280.27363872486399</v>
+      </c>
+      <c r="J25">
+        <v>0.16266113409864499</v>
+      </c>
+      <c r="K25" s="8">
+        <v>231.37276149386</v>
+      </c>
+      <c r="L25">
+        <v>0.14598674317570201</v>
+      </c>
+      <c r="M25" s="8">
+        <v>169.20439048949501</v>
+      </c>
+      <c r="N25">
+        <v>0.139231164206574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>175.713683026297</v>
+        <v>175.71368302629699</v>
       </c>
       <c r="B26" s="3">
         <v>0.182153846153846</v>
@@ -1543,16 +2708,40 @@
         <v>175.260863450991</v>
       </c>
       <c r="D26" s="3">
-        <v>0.171692307692307</v>
+        <v>0.17169230769230701</v>
       </c>
       <c r="E26" s="3">
-        <v>181.898467163549</v>
+        <v>181.89846716354899</v>
       </c>
       <c r="F26" s="3">
         <v>0.165538461538461</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="G26" s="8">
+        <v>231.54580706252599</v>
+      </c>
+      <c r="H26">
+        <v>0.168551885329803</v>
+      </c>
+      <c r="I26" s="8">
+        <v>286.71733556503199</v>
+      </c>
+      <c r="J26">
+        <v>0.16291920205654101</v>
+      </c>
+      <c r="K26" s="8">
+        <v>239.19482130294301</v>
+      </c>
+      <c r="L26">
+        <v>0.14598334228013299</v>
+      </c>
+      <c r="M26" s="8">
+        <v>175.655089173482</v>
+      </c>
+      <c r="N26">
+        <v>0.14040227259845001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>181.154549289832</v>
       </c>
@@ -1560,19 +2749,43 @@
         <v>0.186923076923076</v>
       </c>
       <c r="C27" s="3">
-        <v>182.35831809872</v>
+        <v>182.35831809871999</v>
       </c>
       <c r="D27" s="3">
         <v>0.175230769230769</v>
       </c>
       <c r="E27" s="3">
-        <v>188.994515539305</v>
+        <v>188.99451553930501</v>
       </c>
       <c r="F27" s="3">
-        <v>0.169230769230769</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+        <v>0.16923076923076899</v>
+      </c>
+      <c r="G27" s="8">
+        <v>238.46362875557199</v>
+      </c>
+      <c r="H27">
+        <v>0.17063583410298</v>
+      </c>
+      <c r="I27" s="8">
+        <v>293.615151990024</v>
+      </c>
+      <c r="J27">
+        <v>0.16239446387548701</v>
+      </c>
+      <c r="K27" s="8">
+        <v>245.648520777138</v>
+      </c>
+      <c r="L27">
+        <v>0.147545753715144</v>
+      </c>
+      <c r="M27" s="8">
+        <v>182.09278443323399</v>
+      </c>
+      <c r="N27">
+        <v>0.13987773447007701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>187.73590212347</v>
       </c>
@@ -1580,50 +2793,98 @@
         <v>0.186923076923076</v>
       </c>
       <c r="C28" s="3">
-        <v>188.379974687104</v>
+        <v>188.37997468710401</v>
       </c>
       <c r="D28" s="3">
         <v>0.176461538461538</v>
       </c>
       <c r="E28" s="3">
-        <v>196.113064266629</v>
+        <v>196.11306426662901</v>
       </c>
       <c r="F28" s="3">
         <v>0.170461538461538</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="G28" s="8">
+        <v>245.361445180564</v>
+      </c>
+      <c r="H28">
+        <v>0.170111095921926</v>
+      </c>
+      <c r="I28" s="8">
+        <v>300.54297631709602</v>
+      </c>
+      <c r="J28">
+        <v>0.165782756125779</v>
+      </c>
+      <c r="K28" s="8">
+        <v>252.551338519143</v>
+      </c>
+      <c r="L28">
+        <v>0.147673187272648</v>
+      </c>
+      <c r="M28" s="8">
+        <v>188.54448338062301</v>
+      </c>
+      <c r="N28">
+        <v>0.141179277209665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>195.972437069329</v>
       </c>
       <c r="B29" s="3">
-        <v>0.185846153846153</v>
+        <v>0.18584615384615299</v>
       </c>
       <c r="C29" s="3">
-        <v>195.508367318239</v>
+        <v>195.50836731823901</v>
       </c>
       <c r="D29" s="3">
-        <v>0.176615384615384</v>
+        <v>0.17661538461538401</v>
       </c>
       <c r="E29" s="3">
-        <v>202.690198284348</v>
+        <v>202.69019828434801</v>
       </c>
       <c r="F29" s="3">
-        <v>0.170923076923076</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+        <v>0.17092307692307601</v>
+      </c>
+      <c r="G29" s="8">
+        <v>252.266263449375</v>
+      </c>
+      <c r="H29">
+        <v>0.17049939817485199</v>
+      </c>
+      <c r="I29" s="8">
+        <v>307.902914434134</v>
+      </c>
+      <c r="J29">
+        <v>0.16551868658746799</v>
+      </c>
+      <c r="K29" s="8">
+        <v>258.54591709149997</v>
+      </c>
+      <c r="L29">
+        <v>0.149366233108051</v>
+      </c>
+      <c r="M29" s="8">
+        <v>195.90142070745199</v>
+      </c>
+      <c r="N29">
+        <v>0.14052390462821801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>203.085360708761</v>
+        <v>203.08536070876099</v>
       </c>
       <c r="B30" s="3">
-        <v>0.187692307692307</v>
+        <v>0.18769230769230699</v>
       </c>
       <c r="C30" s="3">
         <v>202.629728589509</v>
       </c>
       <c r="D30" s="3">
-        <v>0.177538461538461</v>
+        <v>0.17753846153846101</v>
       </c>
       <c r="E30" s="3">
         <v>209.822809731402</v>
@@ -1631,19 +2892,43 @@
       <c r="F30" s="3">
         <v>0.170615384615384</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="G30" s="8">
+        <v>259.17608303519899</v>
+      </c>
+      <c r="H30">
+        <v>0.17153987216633701</v>
+      </c>
+      <c r="I30" s="8">
+        <v>315.26185228776899</v>
+      </c>
+      <c r="J30">
+        <v>0.16512418270144399</v>
+      </c>
+      <c r="K30" s="8">
+        <v>265.91885863277298</v>
+      </c>
+      <c r="L30">
+        <v>0.15079781008998999</v>
+      </c>
+      <c r="M30" s="8">
+        <v>202.80023739584701</v>
+      </c>
+      <c r="N30">
+        <v>0.14012960079487499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>209.663900998453</v>
+        <v>209.66390099845299</v>
       </c>
       <c r="B31" s="3">
         <v>0.188</v>
       </c>
       <c r="C31" s="3">
-        <v>209.199831247363</v>
+        <v>209.19983124736299</v>
       </c>
       <c r="D31" s="3">
-        <v>0.17876923076923</v>
+        <v>0.17876923076922999</v>
       </c>
       <c r="E31" s="3">
         <v>216.93432709886</v>
@@ -1651,10 +2936,34 @@
       <c r="F31" s="3">
         <v>0.172615384615384</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="G31" s="8">
+        <v>266.10090657206399</v>
+      </c>
+      <c r="H31">
+        <v>0.174536861373495</v>
+      </c>
+      <c r="I31" s="8">
+        <v>322.18067424421702</v>
+      </c>
+      <c r="J31">
+        <v>0.167338565822333</v>
+      </c>
+      <c r="K31" s="8">
+        <v>271.90043378089501</v>
+      </c>
+      <c r="L31">
+        <v>0.15079520940514299</v>
+      </c>
+      <c r="M31" s="8">
+        <v>209.704055401255</v>
+      </c>
+      <c r="N31">
+        <v>0.140387468700091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>217.883560680635</v>
+        <v>217.88356068063499</v>
       </c>
       <c r="B32" s="3">
         <v>0.18876923076923</v>
@@ -1666,53 +2975,125 @@
         <v>0.181076923076923</v>
       </c>
       <c r="E32" s="3">
-        <v>224.592884263816</v>
+        <v>224.59288426381599</v>
       </c>
       <c r="F32" s="3">
-        <v>0.17476923076923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+        <v>0.17476923076923001</v>
+      </c>
+      <c r="G32" s="8">
+        <v>272.99572220684701</v>
+      </c>
+      <c r="H32">
+        <v>0.17362082014930499</v>
+      </c>
+      <c r="I32" s="8">
+        <v>328.62037003077398</v>
+      </c>
+      <c r="J32">
+        <v>0.167074896389382</v>
+      </c>
+      <c r="K32" s="8">
+        <v>279.72849517039401</v>
+      </c>
+      <c r="L32">
+        <v>0.151574414595843</v>
+      </c>
+      <c r="M32" s="8">
+        <v>217.06699430850099</v>
+      </c>
+      <c r="N32">
+        <v>0.14051470220491299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>225.556180565321</v>
       </c>
       <c r="B33" s="3">
-        <v>0.189384615384615</v>
+        <v>0.18938461538461501</v>
       </c>
       <c r="C33" s="3">
-        <v>224.531008297004</v>
+        <v>224.53100829700401</v>
       </c>
       <c r="D33" s="3">
-        <v>0.181538461538461</v>
+        <v>0.18153846153846101</v>
       </c>
       <c r="E33" s="3">
-        <v>230.644072563633</v>
+        <v>230.64407256363299</v>
       </c>
       <c r="F33" s="3">
-        <v>0.17276923076923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+        <v>0.17276923076923001</v>
+      </c>
+      <c r="G33" s="8">
+        <v>279.88953757822799</v>
+      </c>
+      <c r="H33">
+        <v>0.172574344577405</v>
+      </c>
+      <c r="I33" s="8">
+        <v>336.44242983985703</v>
+      </c>
+      <c r="J33">
+        <v>0.167071495493813</v>
+      </c>
+      <c r="K33" s="8">
+        <v>287.09743565805599</v>
+      </c>
+      <c r="L33">
+        <v>0.15248425418693501</v>
+      </c>
+      <c r="M33" s="8">
+        <v>223.98281547474099</v>
+      </c>
+      <c r="N33">
+        <v>0.142337782282667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>231.042047531992</v>
+        <v>231.04204753199201</v>
       </c>
       <c r="B34" s="3">
-        <v>0.189230769230769</v>
+        <v>0.18923076923076901</v>
       </c>
       <c r="C34" s="3">
         <v>230.573758964983</v>
       </c>
       <c r="D34" s="3">
-        <v>0.180461538461538</v>
+        <v>0.18046153846153801</v>
       </c>
       <c r="E34" s="3">
         <v>237.756996203065</v>
       </c>
       <c r="F34" s="3">
-        <v>0.174615384615384</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+        <v>0.17461538461538401</v>
+      </c>
+      <c r="G34" s="8">
+        <v>287.27548254373602</v>
+      </c>
+      <c r="H34">
+        <v>0.175701568079594</v>
+      </c>
+      <c r="I34" s="8">
+        <v>342.90513168467697</v>
+      </c>
+      <c r="J34">
+        <v>0.16980781605822801</v>
+      </c>
+      <c r="K34" s="8">
+        <v>293.54513355183502</v>
+      </c>
+      <c r="L34">
+        <v>0.15326405953567701</v>
+      </c>
+      <c r="M34" s="8">
+        <v>231.32774964073801</v>
+      </c>
+      <c r="N34">
+        <v>0.14011719752868201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>236.536352130501</v>
       </c>
@@ -1723,38 +3104,86 @@
         <v>237.702151596118</v>
       </c>
       <c r="D35" s="3">
-        <v>0.180615384615384</v>
+        <v>0.18061538461538401</v>
       </c>
       <c r="E35" s="3">
-        <v>244.879763746308</v>
+        <v>244.87976374630799</v>
       </c>
       <c r="F35" s="3">
         <v>0.175384615384615</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="G35" s="8">
+        <v>294.15629449088198</v>
+      </c>
+      <c r="H35">
+        <v>0.17295944598744301</v>
+      </c>
+      <c r="I35" s="8">
+        <v>349.33782562741499</v>
+      </c>
+      <c r="J35">
+        <v>0.16863110619129701</v>
+      </c>
+      <c r="K35" s="8">
+        <v>300.44695103043802</v>
+      </c>
+      <c r="L35">
+        <v>0.153261058745469</v>
+      </c>
+      <c r="M35" s="8">
+        <v>237.77144648090601</v>
+      </c>
+      <c r="N35">
+        <v>0.140375265486578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>245.838841231894</v>
+        <v>245.83884123189401</v>
       </c>
       <c r="B36" s="3">
-        <v>0.190461538461538</v>
+        <v>0.19046153846153799</v>
       </c>
       <c r="C36" s="3">
         <v>245.370552664885</v>
       </c>
       <c r="D36" s="3">
-        <v>0.181692307692307</v>
+        <v>0.18169230769230699</v>
       </c>
       <c r="E36" s="3">
-        <v>251.447053860216</v>
+        <v>251.44705386021599</v>
       </c>
       <c r="F36" s="3">
-        <v>0.176923076923076</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+        <v>0.17692307692307599</v>
+      </c>
+      <c r="G36" s="8">
+        <v>300.61099422848002</v>
+      </c>
+      <c r="H36">
+        <v>0.174652291770166</v>
+      </c>
+      <c r="I36" s="8">
+        <v>357.17188859733</v>
+      </c>
+      <c r="J36">
+        <v>0.17019291746826601</v>
+      </c>
+      <c r="K36" s="8">
+        <v>307.36477272348299</v>
+      </c>
+      <c r="L36">
+        <v>0.15534500751864599</v>
+      </c>
+      <c r="M36" s="8">
+        <v>244.67626474971701</v>
+      </c>
+      <c r="N36">
+        <v>0.14076356773950399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>252.415975249613</v>
+        <v>252.41597524961301</v>
       </c>
       <c r="B37" s="3">
         <v>0.190923076923076</v>
@@ -1766,24 +3195,48 @@
         <v>0.182307692307692</v>
       </c>
       <c r="E37" s="3">
-        <v>259.115454928983</v>
+        <v>259.11545492898301</v>
       </c>
       <c r="F37" s="3">
-        <v>0.178</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G37" s="8">
+        <v>308.44905825200601</v>
+      </c>
+      <c r="H37">
+        <v>0.17673584043798199</v>
+      </c>
+      <c r="I37" s="8">
+        <v>363.62558807152499</v>
+      </c>
+      <c r="J37">
+        <v>0.17175532890327699</v>
+      </c>
+      <c r="K37" s="8">
+        <v>315.184832005761</v>
+      </c>
+      <c r="L37">
+        <v>0.15508073792765401</v>
+      </c>
+      <c r="M37" s="8">
+        <v>252.49632403199499</v>
+      </c>
+      <c r="N37">
+        <v>0.140499298148512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>258.997328083251</v>
+        <v>258.99732808325098</v>
       </c>
       <c r="B38" s="3">
         <v>0.190923076923076</v>
       </c>
       <c r="C38" s="3">
-        <v>259.614681479398</v>
+        <v>259.61468147939797</v>
       </c>
       <c r="D38" s="3">
-        <v>0.183384615384615</v>
+        <v>0.18338461538461501</v>
       </c>
       <c r="E38" s="3">
         <v>266.226972296442</v>
@@ -1791,13 +3244,31 @@
       <c r="F38" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="G38" s="8">
+        <v>315.33887256977602</v>
+      </c>
+      <c r="H38">
+        <v>0.17516762747523501</v>
+      </c>
+      <c r="K38" s="8">
+        <v>321.629529109332</v>
+      </c>
+      <c r="L38">
+        <v>0.155469240233261</v>
+      </c>
+      <c r="M38" s="8">
+        <v>258.93702008195498</v>
+      </c>
+      <c r="N38">
+        <v>0.14036606306327301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>265.573055828997</v>
+        <v>265.57305582899698</v>
       </c>
       <c r="B39" s="3">
-        <v>0.191538461538461</v>
+        <v>0.19153846153846099</v>
       </c>
       <c r="C39" s="3">
         <v>265.633525523836</v>
@@ -1806,73 +3277,145 @@
         <v>0.184923076923076</v>
       </c>
       <c r="E39" s="3">
-        <v>272.819575305864</v>
+        <v>272.81957530586402</v>
       </c>
       <c r="F39" s="3">
-        <v>0.17876923076923</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+        <v>0.17876923076922999</v>
+      </c>
+      <c r="G39" s="8">
+        <v>321.80057415119302</v>
+      </c>
+      <c r="H39">
+        <v>0.177773513691938</v>
+      </c>
+      <c r="K39" s="8">
+        <v>329.47159418646902</v>
+      </c>
+      <c r="L39">
+        <v>0.15807452629192301</v>
+      </c>
+      <c r="M39" s="8">
+        <v>264.93259891771498</v>
+      </c>
+      <c r="N39">
+        <v>0.14218954324638799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>273.251300801575</v>
+        <v>273.25130080157498</v>
       </c>
       <c r="B40" s="3">
-        <v>0.191538461538461</v>
+        <v>0.19153846153846099</v>
       </c>
       <c r="C40" s="3">
-        <v>272.219097173393</v>
+        <v>272.21909717339298</v>
       </c>
       <c r="D40" s="3">
-        <v>0.184461538461538</v>
+        <v>0.18446153846153801</v>
       </c>
       <c r="E40" s="3">
-        <v>279.940936577133</v>
+        <v>279.94093657713302</v>
       </c>
       <c r="F40" s="3">
-        <v>0.179692307692307</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+        <v>0.17969230769230701</v>
+      </c>
+      <c r="G40" s="8">
+        <v>329.16151253163298</v>
+      </c>
+      <c r="H40">
+        <v>0.177639878501338</v>
+      </c>
+      <c r="K40" s="8">
+        <v>335.452169071188</v>
+      </c>
+      <c r="L40">
+        <v>0.15794149125936399</v>
+      </c>
+      <c r="M40" s="8">
+        <v>272.28053387391998</v>
+      </c>
+      <c r="N40">
+        <v>0.14036026153553699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>279.853747714808</v>
+        <v>279.85374771480798</v>
       </c>
       <c r="B41" s="3">
-        <v>0.189230769230769</v>
+        <v>0.18923076923076901</v>
       </c>
       <c r="C41" s="3">
-        <v>279.897342145971</v>
+        <v>279.89734214597098</v>
       </c>
       <c r="D41" s="3">
-        <v>0.184461538461538</v>
+        <v>0.18446153846153801</v>
       </c>
       <c r="E41" s="3">
-        <v>286.522289410771</v>
+        <v>286.52228941077101</v>
       </c>
       <c r="F41" s="3">
-        <v>0.179692307692307</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+        <v>0.17969230769230701</v>
+      </c>
+      <c r="G41" s="8">
+        <v>336.06232974683297</v>
+      </c>
+      <c r="H41">
+        <v>0.177506443363419</v>
+      </c>
+      <c r="K41" s="8">
+        <v>343.27622940707698</v>
+      </c>
+      <c r="L41">
+        <v>0.15819895905921799</v>
+      </c>
+      <c r="M41" s="8">
+        <v>278.72723150429601</v>
+      </c>
+      <c r="N41">
+        <v>0.14100963253656701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>286.422444100688</v>
+        <v>286.42244410068798</v>
       </c>
       <c r="B42" s="3">
-        <v>0.190615384615384</v>
+        <v>0.19061538461538399</v>
       </c>
       <c r="C42" s="3">
-        <v>285.934467726058</v>
+        <v>285.93446772605802</v>
       </c>
       <c r="D42" s="3">
         <v>0.184</v>
       </c>
       <c r="E42" s="3">
-        <v>293.656307129798</v>
+        <v>293.65630712979799</v>
       </c>
       <c r="F42" s="3">
         <v>0.179230769230769</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="G42" s="8">
+        <v>343.43827207831401</v>
+      </c>
+      <c r="H42">
+        <v>0.179329323388492</v>
+      </c>
+      <c r="K42" s="8">
+        <v>349.72092651064702</v>
+      </c>
+      <c r="L42">
+        <v>0.15858746136482599</v>
+      </c>
+      <c r="M42" s="8">
+        <v>285.620046612274</v>
+      </c>
+      <c r="N42">
+        <v>0.13983272261695501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>294.116158064969</v>
       </c>
@@ -1889,152 +3432,230 @@
         <v>300.781887216987</v>
       </c>
       <c r="F43" s="3">
-        <v>0.179692307692307</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+        <v>0.17969230769230701</v>
+      </c>
+      <c r="G43" s="8">
+        <v>349.88296918188399</v>
+      </c>
+      <c r="H43">
+        <v>0.179717825694099</v>
+      </c>
+      <c r="K43" s="8">
+        <v>357.09386805192003</v>
+      </c>
+      <c r="L43">
+        <v>0.16001903834676401</v>
+      </c>
+      <c r="M43" s="8">
+        <v>293.44610747496802</v>
+      </c>
+      <c r="N43">
+        <v>0.140351059112232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>300.135002109407</v>
+        <v>300.13500210940703</v>
       </c>
       <c r="B44" s="3">
-        <v>0.190461538461538</v>
+        <v>0.19046153846153799</v>
       </c>
       <c r="C44" s="3">
-        <v>300.724230066094</v>
+        <v>300.72423006609398</v>
       </c>
       <c r="D44" s="3">
         <v>0.186</v>
       </c>
       <c r="E44" s="3">
-        <v>308.451694557727</v>
+        <v>308.45169455772702</v>
       </c>
       <c r="F44" s="3">
-        <v>0.180615384615384</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+        <v>0.18061538461538401</v>
+      </c>
+      <c r="G44" s="8">
+        <v>356.791788504306</v>
+      </c>
+      <c r="H44">
+        <v>0.18062786533787201</v>
+      </c>
+      <c r="K44" s="8">
+        <v>364.00668842795199</v>
+      </c>
+      <c r="L44">
+        <v>0.16145081538138301</v>
+      </c>
+      <c r="M44" s="8">
+        <v>299.89680615895497</v>
+      </c>
+      <c r="N44">
+        <v>0.14152216750410901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>308.36872451132</v>
+        <v>308.36872451132001</v>
       </c>
       <c r="B45" s="3">
-        <v>0.189692307692307</v>
+        <v>0.18969230769230699</v>
       </c>
       <c r="C45" s="3">
-        <v>307.880748136689</v>
+        <v>307.88074813668902</v>
       </c>
       <c r="D45" s="3">
         <v>0.183076923076923</v>
       </c>
       <c r="E45" s="3">
-        <v>315.575868372943</v>
+        <v>315.57586837294298</v>
       </c>
       <c r="F45" s="3">
         <v>0.181230769230769</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="G45" s="8">
+        <v>364.15872846516203</v>
+      </c>
+      <c r="H45">
+        <v>0.18127683623354099</v>
+      </c>
+      <c r="M45" s="8">
+        <v>307.71786570463502</v>
+      </c>
+      <c r="N45">
+        <v>0.141388332260828</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>314.396006187596</v>
+        <v>314.39600618759602</v>
       </c>
       <c r="B46" s="3">
-        <v>0.190307692307692</v>
+        <v>0.19030769230769201</v>
       </c>
       <c r="C46" s="3">
         <v>315.54633666151</v>
       </c>
       <c r="D46" s="3">
-        <v>0.184461538461538</v>
+        <v>0.18446153846153801</v>
       </c>
       <c r="E46" s="3">
-        <v>322.698635916186</v>
+        <v>322.69863591618599</v>
       </c>
       <c r="F46" s="3">
         <v>0.182</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="M46" s="8">
+        <v>314.63168634406998</v>
+      </c>
+      <c r="N46">
+        <v>0.14295054364315901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>322.057375896498</v>
       </c>
       <c r="B47" s="3">
-        <v>0.192153846153846</v>
+        <v>0.19215384615384601</v>
       </c>
       <c r="C47" s="3">
-        <v>321.560961890029</v>
+        <v>321.56096189002898</v>
       </c>
       <c r="D47" s="3">
-        <v>0.186461538461538</v>
+        <v>0.18646153846153801</v>
       </c>
       <c r="E47" s="3">
-        <v>328.738574040219</v>
+        <v>328.73857404021902</v>
       </c>
       <c r="F47" s="3">
         <v>0.181230769230769</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="M47" s="8">
+        <v>321.99362498791299</v>
+      </c>
+      <c r="N47">
+        <v>0.14294734280026999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>328.102939108423</v>
+        <v>328.10293910842302</v>
       </c>
       <c r="B48" s="3">
         <v>0.19076923076923</v>
       </c>
       <c r="C48" s="3">
-        <v>328.690760793137</v>
+        <v>328.69076079313697</v>
       </c>
       <c r="D48" s="3">
-        <v>0.186461538461538</v>
+        <v>0.18646153846153801</v>
       </c>
       <c r="E48" s="3">
-        <v>335.315708057938</v>
+        <v>335.31570805793802</v>
       </c>
       <c r="F48" s="3">
-        <v>0.181692307692307</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+        <v>0.18169230769230699</v>
+      </c>
+      <c r="M48" s="8">
+        <v>328.89344193970999</v>
+      </c>
+      <c r="N48">
+        <v>0.14268347331463899</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>335.78540289692</v>
       </c>
       <c r="B49" s="3">
-        <v>0.190307692307692</v>
+        <v>0.19030769230769201</v>
       </c>
       <c r="C49" s="3">
-        <v>336.363380677823</v>
+        <v>336.36338067782299</v>
       </c>
       <c r="D49" s="3">
         <v>0.187076923076923</v>
       </c>
       <c r="E49" s="3">
-        <v>343.531148924201</v>
+        <v>343.53114892420098</v>
       </c>
       <c r="F49" s="3">
-        <v>0.182923076923076</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+        <v>0.18292307692307599</v>
+      </c>
+      <c r="M49" s="8">
+        <v>335.793258891508</v>
+      </c>
+      <c r="N49">
+        <v>0.14241960382900801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>342.356911826747</v>
+        <v>342.35691182674702</v>
       </c>
       <c r="B50" s="3">
-        <v>0.191384615384615</v>
+        <v>0.19138461538461499</v>
       </c>
       <c r="C50" s="3">
-        <v>342.954577415272</v>
+        <v>342.95457741527201</v>
       </c>
       <c r="D50" s="3">
         <v>0.186</v>
       </c>
       <c r="E50" s="3">
-        <v>349.005765715089</v>
+        <v>349.00576571508901</v>
       </c>
       <c r="F50" s="3">
         <v>0.184</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="M50" s="8">
+        <v>342.70507900413702</v>
+      </c>
+      <c r="N50">
+        <v>0.14372094651591499</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>350.029531711432</v>
+        <v>350.02953171143201</v>
       </c>
       <c r="B51" s="3">
         <v>0.192</v>
@@ -2043,50 +3664,68 @@
         <v>350.08015750246</v>
       </c>
       <c r="D51" s="3">
-        <v>0.186461538461538</v>
+        <v>0.18646153846153801</v>
       </c>
       <c r="E51" s="3">
-        <v>356.689635775558</v>
+        <v>356.68963577555797</v>
       </c>
       <c r="F51" s="3">
-        <v>0.183384615384615</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+        <v>0.18338461538461501</v>
+      </c>
+      <c r="M51" s="8">
+        <v>349.60989727294799</v>
+      </c>
+      <c r="N51">
+        <v>0.14410924876884201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>356.61088454507</v>
+        <v>356.61088454507001</v>
       </c>
       <c r="B52" s="3">
         <v>0.192</v>
       </c>
       <c r="C52" s="3">
-        <v>357.195893685838</v>
+        <v>357.19589368583797</v>
       </c>
       <c r="D52" s="3">
         <v>0.188</v>
       </c>
       <c r="E52" s="3">
-        <v>363.270988609196</v>
+        <v>363.27098860919602</v>
       </c>
       <c r="F52" s="3">
-        <v>0.183384615384615</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+        <v>0.18338461538461501</v>
+      </c>
+      <c r="M52" s="8">
+        <v>356.97483670699899</v>
+      </c>
+      <c r="N52">
+        <v>0.144497350969088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>364.277879341864</v>
+        <v>364.27787934186398</v>
       </c>
       <c r="B53" s="3">
-        <v>0.193230769230769</v>
+        <v>0.19323076923076901</v>
       </c>
       <c r="C53" s="3">
-        <v>363.209112642385</v>
+        <v>363.20911264238498</v>
       </c>
       <c r="D53" s="3">
-        <v>0.190153846153846</v>
+        <v>0.19015384615384601</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
+      <c r="M53" s="8">
+        <v>363.42353486418</v>
+      </c>
+      <c r="N53">
+        <v>0.14540759066554099</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
